--- a/microretailer_mit_lift_lab.xlsx
+++ b/microretailer_mit_lift_lab.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41F73F8E-CF39-4473-A04A-8EA0414C3CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFBF0C9-143E-A344-BAFE-2157C1EFB9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="micro-retailer_-_mit_lift_lab" sheetId="1" r:id="rId1"/>
+    <sheet name="Limpiecito" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6875" uniqueCount="1413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9000" uniqueCount="1476">
   <si>
     <t>_record_id</t>
   </si>
@@ -4254,6 +4268,195 @@
   </si>
   <si>
     <t>2022-11-03</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>tipo de tienda</t>
+  </si>
+  <si>
+    <t>El microretailer has a barred window</t>
+  </si>
+  <si>
+    <t>Store devices</t>
+  </si>
+  <si>
+    <t>acepto la encuesta</t>
+  </si>
+  <si>
+    <t>empleados permanentes</t>
+  </si>
+  <si>
+    <t>empleados permanentes el año pasado</t>
+  </si>
+  <si>
+    <t>cambio espacio tienda</t>
+  </si>
+  <si>
+    <t>cambio promedio salario</t>
+  </si>
+  <si>
+    <t>Registro inventario</t>
+  </si>
+  <si>
+    <t>registros ventas</t>
+  </si>
+  <si>
+    <t>id impuesto</t>
+  </si>
+  <si>
+    <t>canales ventas</t>
+  </si>
+  <si>
+    <t>metodo pago</t>
+  </si>
+  <si>
+    <t>relacion clientes</t>
+  </si>
+  <si>
+    <t>organizado productos</t>
+  </si>
+  <si>
+    <t>internet conexión</t>
+  </si>
+  <si>
+    <t>credito clientes</t>
+  </si>
+  <si>
+    <t>planificacion ventas</t>
+  </si>
+  <si>
+    <t>pedidos proveedores</t>
+  </si>
+  <si>
+    <t>tailor</t>
+  </si>
+  <si>
+    <t>grocery store (aka. nanostore)</t>
+  </si>
+  <si>
+    <t>cafeteria</t>
+  </si>
+  <si>
+    <t>technology store</t>
+  </si>
+  <si>
+    <t>retailer store</t>
+  </si>
+  <si>
+    <t>butcher shop</t>
+  </si>
+  <si>
+    <t>micro-restaurant (aka. fondita)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dulceria </t>
+  </si>
+  <si>
+    <t>pet store</t>
+  </si>
+  <si>
+    <t>dairy products</t>
+  </si>
+  <si>
+    <t>planchaduria</t>
+  </si>
+  <si>
+    <t>ginecología</t>
+  </si>
+  <si>
+    <t>salón de eventos</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">handmade products </t>
+  </si>
+  <si>
+    <t>rock store</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">copias y servicio computadoras  </t>
+  </si>
+  <si>
+    <t>objetos tradicionales</t>
+  </si>
+  <si>
+    <t>ferretería</t>
+  </si>
+  <si>
+    <t>venta de productos de limpieza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tortillería </t>
+  </si>
+  <si>
+    <t>produce (fruits &amp; vegetables)</t>
+  </si>
+  <si>
+    <t>panaderia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tlapalería </t>
+  </si>
+  <si>
+    <t>tienda de ropa</t>
+  </si>
+  <si>
+    <t>lavanderia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bread </t>
+  </si>
+  <si>
+    <t xml:space="preserve">estética </t>
+  </si>
+  <si>
+    <t>papelería</t>
+  </si>
+  <si>
+    <t>peluqueria</t>
+  </si>
+  <si>
+    <t>toolshop</t>
+  </si>
+  <si>
+    <t>floreria</t>
+  </si>
+  <si>
+    <t>laundry store</t>
+  </si>
+  <si>
+    <t>tailor (sastrería)</t>
+  </si>
+  <si>
+    <t>pos system (i.e. computer + bar code scanner + printer)</t>
+  </si>
+  <si>
+    <t>dataphone (i.e. card payments)</t>
+  </si>
+  <si>
+    <t>smartphone</t>
+  </si>
+  <si>
+    <t>security cameras,smartphone</t>
+  </si>
+  <si>
+    <t>analog cash register</t>
+  </si>
+  <si>
+    <t>papel y celular</t>
+  </si>
+  <si>
+    <t>pesa y calculadora</t>
+  </si>
+  <si>
+    <t>Otro</t>
   </si>
 </sst>
 </file>
@@ -4273,6 +4476,7 @@
       <sz val="11"/>
       <color rgb="FF0000D4"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4313,6 +4517,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5822748F-6666-7D4A-99B6-E9840156F2EE}" name="Tabla1" displayName="Tabla1" ref="A1:T1048576" totalsRowShown="0">
+  <autoFilter ref="A1:T1048576" xr:uid="{5822748F-6666-7D4A-99B6-E9840156F2EE}">
+    <filterColumn colId="12">
+      <filters>
+        <filter val="Solo físico"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="20">
+    <tableColumn id="1" xr3:uid="{3E23CC23-FA80-4448-95AD-2B869445B1F6}" name="Fecha"/>
+    <tableColumn id="2" xr3:uid="{BDED824E-BBA6-F244-BEFE-B0635DCE736E}" name="tipo de tienda"/>
+    <tableColumn id="3" xr3:uid="{3A5EDA03-C382-7B4E-A6BC-A6AE4F69E60C}" name="El microretailer has a barred window"/>
+    <tableColumn id="4" xr3:uid="{6C3EA21B-7942-C840-971E-70658EB8BCEF}" name="Store devices"/>
+    <tableColumn id="5" xr3:uid="{E4F2D7F7-C396-4B49-BDAA-9C218C5B1B8D}" name="acepto la encuesta"/>
+    <tableColumn id="6" xr3:uid="{8232602E-444E-A641-88C1-95C87AF10E56}" name="empleados permanentes"/>
+    <tableColumn id="7" xr3:uid="{8DAAED91-5DA6-7642-B5D7-F3F35F666F54}" name="empleados permanentes el año pasado"/>
+    <tableColumn id="8" xr3:uid="{C43358FA-4DFA-8348-A23A-CDB8913FC761}" name="cambio espacio tienda"/>
+    <tableColumn id="9" xr3:uid="{1D751432-F4F1-1A45-921B-3CF85D404E38}" name="cambio promedio salario"/>
+    <tableColumn id="10" xr3:uid="{E4ECB06C-6C00-3442-9627-25BCAC3DC32E}" name="Registro inventario"/>
+    <tableColumn id="11" xr3:uid="{40E89738-5975-5244-8FB2-729BCD407BE9}" name="registros ventas"/>
+    <tableColumn id="12" xr3:uid="{1891B84E-D6CD-4A41-872E-C6FD605E65DC}" name="id impuesto"/>
+    <tableColumn id="13" xr3:uid="{D5367D07-61E0-5A4B-9B9E-806A1B93419F}" name="canales ventas"/>
+    <tableColumn id="14" xr3:uid="{0F6A6148-5C7E-6941-850A-663217301C6C}" name="metodo pago"/>
+    <tableColumn id="15" xr3:uid="{EC18CDAE-3D7F-2B42-B417-20228C9DEFC6}" name="relacion clientes"/>
+    <tableColumn id="16" xr3:uid="{A80C8DDE-E026-F144-BE30-CE4666FF7AE9}" name="organizado productos"/>
+    <tableColumn id="17" xr3:uid="{7A5EA9A7-C813-D943-9E0C-4E02C07F2FFC}" name="internet conexión"/>
+    <tableColumn id="18" xr3:uid="{0A97AD2B-8442-7943-9C60-D0854E3E62FE}" name="credito clientes"/>
+    <tableColumn id="19" xr3:uid="{FC22AB37-D3AB-4141-AF8F-BA6497D0883D}" name="planificacion ventas"/>
+    <tableColumn id="20" xr3:uid="{95ADB74C-9010-BD43-A2E6-186B0D2974DF}" name="pedidos proveedores"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4639,9 +4878,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DB172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="BX1" workbookViewId="0">
+      <selection activeCell="BY28" sqref="BY28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -4650,35 +4891,57 @@
     <col min="5" max="5" width="46" customWidth="1"/>
     <col min="8" max="8" width="52" customWidth="1"/>
     <col min="10" max="10" width="33" customWidth="1"/>
-    <col min="11" max="13" width="4" customWidth="1"/>
+    <col min="11" max="11" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="136" customWidth="1"/>
-    <col min="19" max="20" width="4" customWidth="1"/>
-    <col min="21" max="21" width="11" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="17" max="17" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="44.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22" customWidth="1"/>
-    <col min="26" max="26" width="4" customWidth="1"/>
+    <col min="26" max="26" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="50" customWidth="1"/>
     <col min="28" max="28" width="106" customWidth="1"/>
     <col min="29" max="29" width="17" customWidth="1"/>
-    <col min="31" max="31" width="4" customWidth="1"/>
-    <col min="33" max="33" width="4" customWidth="1"/>
-    <col min="35" max="35" width="4" customWidth="1"/>
+    <col min="30" max="30" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="27" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="36" max="37" width="134" customWidth="1"/>
-    <col min="38" max="38" width="30" customWidth="1"/>
-    <col min="39" max="39" width="4" customWidth="1"/>
-    <col min="40" max="40" width="6" customWidth="1"/>
-    <col min="41" max="41" width="5" customWidth="1"/>
+    <col min="38" max="38" width="25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="30" customWidth="1"/>
     <col min="48" max="48" width="32" customWidth="1"/>
-    <col min="49" max="49" width="4" customWidth="1"/>
-    <col min="51" max="51" width="3" customWidth="1"/>
-    <col min="53" max="53" width="6" customWidth="1"/>
+    <col min="49" max="49" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="40" customWidth="1"/>
-    <col min="55" max="55" width="4" customWidth="1"/>
+    <col min="55" max="55" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="141" customWidth="1"/>
+    <col min="57" max="57" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="24" customWidth="1"/>
     <col min="63" max="63" width="32" customWidth="1"/>
-    <col min="65" max="65" width="8" customWidth="1"/>
+    <col min="64" max="64" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="25.5" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="81" customWidth="1"/>
     <col min="67" max="78" width="31" customWidth="1"/>
     <col min="80" max="80" width="75" customWidth="1"/>
@@ -4700,7 +4963,7 @@
     <col min="106" max="106" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5020,7 +5283,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -5154,7 +5417,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -5285,7 +5548,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>143</v>
       </c>
@@ -5425,7 +5688,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -5559,7 +5822,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -5693,7 +5956,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -5827,7 +6090,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>183</v>
       </c>
@@ -5991,7 +6254,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>196</v>
       </c>
@@ -6143,7 +6406,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -6292,7 +6555,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>217</v>
       </c>
@@ -6429,7 +6692,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>227</v>
       </c>
@@ -6656,7 +6919,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>243</v>
       </c>
@@ -6904,7 +7167,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -7131,7 +7394,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -7355,7 +7618,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>289</v>
       </c>
@@ -7564,7 +7827,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>296</v>
       </c>
@@ -7797,7 +8060,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>307</v>
       </c>
@@ -8054,7 +8317,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>325</v>
       </c>
@@ -8308,7 +8571,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>337</v>
       </c>
@@ -8484,7 +8747,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>343</v>
       </c>
@@ -8681,7 +8944,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>355</v>
       </c>
@@ -8911,7 +9174,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>370</v>
       </c>
@@ -8970,7 +9233,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>375</v>
       </c>
@@ -9029,7 +9292,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>380</v>
       </c>
@@ -9085,7 +9348,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>383</v>
       </c>
@@ -9144,7 +9407,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>388</v>
       </c>
@@ -9311,7 +9574,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>396</v>
       </c>
@@ -9370,7 +9633,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>400</v>
       </c>
@@ -9429,7 +9692,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>405</v>
       </c>
@@ -9488,7 +9751,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>408</v>
       </c>
@@ -9547,7 +9810,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>411</v>
       </c>
@@ -9606,7 +9869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>416</v>
       </c>
@@ -9665,7 +9928,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>419</v>
       </c>
@@ -9724,7 +9987,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>423</v>
       </c>
@@ -9783,7 +10046,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>426</v>
       </c>
@@ -10037,7 +10300,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>445</v>
       </c>
@@ -10201,7 +10464,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>454</v>
       </c>
@@ -10434,7 +10697,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="39" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>464</v>
       </c>
@@ -10664,7 +10927,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>474</v>
       </c>
@@ -10822,7 +11085,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="41" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>487</v>
       </c>
@@ -11046,7 +11309,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>498</v>
       </c>
@@ -11279,7 +11542,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>510</v>
       </c>
@@ -11530,7 +11793,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="44" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>524</v>
       </c>
@@ -11772,7 +12035,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="45" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>537</v>
       </c>
@@ -11993,7 +12256,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>546</v>
       </c>
@@ -12217,7 +12480,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>553</v>
       </c>
@@ -12441,7 +12704,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>559</v>
       </c>
@@ -12500,7 +12763,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>565</v>
       </c>
@@ -12754,7 +13017,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="50" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>578</v>
       </c>
@@ -13023,7 +13286,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="51" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>592</v>
       </c>
@@ -13082,7 +13345,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>597</v>
       </c>
@@ -13315,7 +13578,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>606</v>
       </c>
@@ -13566,7 +13829,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>614</v>
       </c>
@@ -13625,7 +13888,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>619</v>
       </c>
@@ -13813,7 +14076,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="56" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>631</v>
       </c>
@@ -13875,7 +14138,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>636</v>
       </c>
@@ -14096,7 +14359,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>644</v>
       </c>
@@ -14155,7 +14418,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>649</v>
       </c>
@@ -14271,7 +14534,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="60" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>655</v>
       </c>
@@ -14438,7 +14701,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="61" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>666</v>
       </c>
@@ -14602,7 +14865,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="62" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>675</v>
       </c>
@@ -14757,7 +15020,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>684</v>
       </c>
@@ -14816,7 +15079,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>688</v>
       </c>
@@ -14875,7 +15138,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="65" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>693</v>
       </c>
@@ -15060,7 +15323,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="66" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>704</v>
       </c>
@@ -15119,7 +15382,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>710</v>
       </c>
@@ -15346,7 +15609,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="68" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>722</v>
       </c>
@@ -15573,7 +15836,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>730</v>
       </c>
@@ -15818,7 +16081,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="70" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>741</v>
       </c>
@@ -16057,7 +16320,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>751</v>
       </c>
@@ -16191,7 +16454,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>757</v>
       </c>
@@ -16430,7 +16693,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="73" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>765</v>
       </c>
@@ -16591,7 +16854,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>775</v>
       </c>
@@ -16770,7 +17033,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="75" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>785</v>
       </c>
@@ -17024,7 +17287,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="76" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>800</v>
       </c>
@@ -17251,7 +17514,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="77" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>810</v>
       </c>
@@ -17487,7 +17750,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="78" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>820</v>
       </c>
@@ -17753,7 +18016,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="79" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>834</v>
       </c>
@@ -18010,7 +18273,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="80" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>846</v>
       </c>
@@ -18237,7 +18500,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="81" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>853</v>
       </c>
@@ -18485,7 +18748,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="82" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>863</v>
       </c>
@@ -18727,7 +18990,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="83" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>876</v>
       </c>
@@ -18786,7 +19049,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>881</v>
       </c>
@@ -18845,7 +19108,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>884</v>
       </c>
@@ -19048,7 +19311,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="86" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>895</v>
       </c>
@@ -19107,7 +19370,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>900</v>
       </c>
@@ -19166,7 +19429,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>904</v>
       </c>
@@ -19387,7 +19650,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="89" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>913</v>
       </c>
@@ -19446,7 +19709,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="90" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>917</v>
       </c>
@@ -19505,7 +19768,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>921</v>
       </c>
@@ -19561,7 +19824,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>926</v>
       </c>
@@ -19620,7 +19883,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>929</v>
       </c>
@@ -19679,7 +19942,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>934</v>
       </c>
@@ -19738,7 +20001,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>937</v>
       </c>
@@ -19920,7 +20183,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>941</v>
       </c>
@@ -20153,7 +20416,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>946</v>
       </c>
@@ -20215,7 +20478,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="98" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>950</v>
       </c>
@@ -20418,7 +20681,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="99" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>956</v>
       </c>
@@ -20477,7 +20740,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>960</v>
       </c>
@@ -20536,7 +20799,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>964</v>
       </c>
@@ -20631,7 +20894,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="102" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>970</v>
       </c>
@@ -20690,7 +20953,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>976</v>
       </c>
@@ -20749,7 +21012,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>979</v>
       </c>
@@ -20808,7 +21071,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>984</v>
       </c>
@@ -20909,7 +21172,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="106" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>990</v>
       </c>
@@ -20968,7 +21231,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>995</v>
       </c>
@@ -21105,7 +21368,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1001</v>
       </c>
@@ -21335,7 +21598,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1011</v>
       </c>
@@ -21571,7 +21834,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="110" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1025</v>
       </c>
@@ -21816,7 +22079,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1030</v>
       </c>
@@ -21875,7 +22138,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1035</v>
       </c>
@@ -21934,7 +22197,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1041</v>
       </c>
@@ -21993,7 +22256,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1045</v>
       </c>
@@ -22070,7 +22333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1052</v>
       </c>
@@ -22303,7 +22566,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="116" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1062</v>
       </c>
@@ -22362,7 +22625,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1067</v>
       </c>
@@ -22421,7 +22684,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="118" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1070</v>
       </c>
@@ -22480,7 +22743,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1074</v>
       </c>
@@ -22581,7 +22844,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1080</v>
       </c>
@@ -22805,7 +23068,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="121" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1085</v>
       </c>
@@ -23047,7 +23310,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1091</v>
       </c>
@@ -23106,7 +23369,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="123" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1095</v>
       </c>
@@ -23165,7 +23428,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="124" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1099</v>
       </c>
@@ -23392,7 +23655,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="125" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1107</v>
       </c>
@@ -23628,7 +23891,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="126" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1118</v>
       </c>
@@ -23858,7 +24121,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="127" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1124</v>
       </c>
@@ -23947,7 +24210,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1130</v>
       </c>
@@ -24045,7 +24308,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="129" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1134</v>
       </c>
@@ -24137,7 +24400,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1139</v>
       </c>
@@ -24235,7 +24498,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="131" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1143</v>
       </c>
@@ -24294,7 +24557,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1147</v>
       </c>
@@ -24356,7 +24619,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="133" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1152</v>
       </c>
@@ -24502,7 +24765,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="134" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1157</v>
       </c>
@@ -24735,7 +24998,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="135" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1163</v>
       </c>
@@ -24974,7 +25237,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1170</v>
       </c>
@@ -25033,7 +25296,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="137" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1174</v>
       </c>
@@ -25131,7 +25394,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="138" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1178</v>
       </c>
@@ -25190,7 +25453,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="139" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1182</v>
       </c>
@@ -25330,7 +25593,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1187</v>
       </c>
@@ -25389,7 +25652,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="141" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1191</v>
       </c>
@@ -25448,7 +25711,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="142" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1196</v>
       </c>
@@ -25510,7 +25773,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="143" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1200</v>
       </c>
@@ -25572,7 +25835,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:102" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1204</v>
       </c>
@@ -25703,7 +25966,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="145" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1212</v>
       </c>
@@ -25852,7 +26115,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="146" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1217</v>
       </c>
@@ -25971,7 +26234,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="147" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1224</v>
       </c>
@@ -26165,7 +26428,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="148" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1230</v>
       </c>
@@ -26305,7 +26568,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="149" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1235</v>
       </c>
@@ -26445,7 +26708,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="150" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1242</v>
       </c>
@@ -26564,7 +26827,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1247</v>
       </c>
@@ -26701,7 +26964,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1253</v>
       </c>
@@ -26808,7 +27071,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1258</v>
       </c>
@@ -27041,7 +27304,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="154" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1268</v>
       </c>
@@ -27280,7 +27543,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="155" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1275</v>
       </c>
@@ -27504,7 +27767,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="156" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1283</v>
       </c>
@@ -27746,7 +28009,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="157" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1292</v>
       </c>
@@ -27973,7 +28236,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="158" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1301</v>
       </c>
@@ -28203,7 +28466,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="159" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1310</v>
       </c>
@@ -28439,7 +28702,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="160" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1317</v>
       </c>
@@ -28687,7 +28950,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="161" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1328</v>
       </c>
@@ -28824,7 +29087,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="162" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1332</v>
       </c>
@@ -29054,7 +29317,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="163" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1346</v>
       </c>
@@ -29296,7 +29559,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="164" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1361</v>
       </c>
@@ -29541,7 +29804,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="165" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1372</v>
       </c>
@@ -29600,7 +29863,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="166" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1376</v>
       </c>
@@ -29662,7 +29925,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="167" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1381</v>
       </c>
@@ -29910,7 +30173,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="168" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1392</v>
       </c>
@@ -29969,7 +30232,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="169" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1396</v>
       </c>
@@ -30028,7 +30291,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="170" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1400</v>
       </c>
@@ -30087,7 +30350,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="171" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1404</v>
       </c>
@@ -30146,7 +30409,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="172" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1408</v>
       </c>
@@ -30404,4 +30667,7379 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBCF621-730C-D74B-B828-7E283D8EDA5F}">
+  <dimension ref="A1:T172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="N108" sqref="N108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="5" max="5" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="50" customWidth="1"/>
+    <col min="11" max="11" width="106" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="14" width="134" customWidth="1"/>
+    <col min="15" max="15" width="32" customWidth="1"/>
+    <col min="16" max="16" width="136" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40" customWidth="1"/>
+    <col min="20" max="20" width="75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M3" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>114</v>
+      </c>
+      <c r="R3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O4" t="s">
+        <v>122</v>
+      </c>
+      <c r="P4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>114</v>
+      </c>
+      <c r="R4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" t="s">
+        <v>114</v>
+      </c>
+      <c r="M5" t="s">
+        <v>120</v>
+      </c>
+      <c r="N5" t="s">
+        <v>158</v>
+      </c>
+      <c r="O5" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>114</v>
+      </c>
+      <c r="R5" t="s">
+        <v>115</v>
+      </c>
+      <c r="S5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J6" t="s">
+        <v>168</v>
+      </c>
+      <c r="K6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M6" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" t="s">
+        <v>158</v>
+      </c>
+      <c r="P6" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>114</v>
+      </c>
+      <c r="R7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" t="s">
+        <v>114</v>
+      </c>
+      <c r="M8" t="s">
+        <v>149</v>
+      </c>
+      <c r="N8" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" t="s">
+        <v>122</v>
+      </c>
+      <c r="P8" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>114</v>
+      </c>
+      <c r="R8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>201</v>
+      </c>
+      <c r="I9" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" t="s">
+        <v>202</v>
+      </c>
+      <c r="K9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>114</v>
+      </c>
+      <c r="R9" t="s">
+        <v>114</v>
+      </c>
+      <c r="S9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>114</v>
+      </c>
+      <c r="R10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" t="s">
+        <v>223</v>
+      </c>
+      <c r="P11" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>114</v>
+      </c>
+      <c r="R11" t="s">
+        <v>114</v>
+      </c>
+      <c r="S11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>235</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" t="s">
+        <v>223</v>
+      </c>
+      <c r="O12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>114</v>
+      </c>
+      <c r="R12" t="s">
+        <v>114</v>
+      </c>
+      <c r="S12" t="s">
+        <v>160</v>
+      </c>
+      <c r="T12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P13" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>114</v>
+      </c>
+      <c r="R13" t="s">
+        <v>114</v>
+      </c>
+      <c r="S13" t="s">
+        <v>138</v>
+      </c>
+      <c r="T13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K14" t="s">
+        <v>270</v>
+      </c>
+      <c r="L14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>114</v>
+      </c>
+      <c r="R14" t="s">
+        <v>115</v>
+      </c>
+      <c r="S14" t="s">
+        <v>160</v>
+      </c>
+      <c r="T14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" t="s">
+        <v>223</v>
+      </c>
+      <c r="O15" t="s">
+        <v>160</v>
+      </c>
+      <c r="P15" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R15" t="s">
+        <v>115</v>
+      </c>
+      <c r="S15" t="s">
+        <v>160</v>
+      </c>
+      <c r="T15" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s">
+        <v>114</v>
+      </c>
+      <c r="N16" t="s">
+        <v>223</v>
+      </c>
+      <c r="O16" t="s">
+        <v>138</v>
+      </c>
+      <c r="P16" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>114</v>
+      </c>
+      <c r="R16" t="s">
+        <v>115</v>
+      </c>
+      <c r="S16" t="s">
+        <v>160</v>
+      </c>
+      <c r="T16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>297</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E17" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" t="s">
+        <v>119</v>
+      </c>
+      <c r="L17" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>114</v>
+      </c>
+      <c r="R17" t="s">
+        <v>114</v>
+      </c>
+      <c r="T17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E18" t="s">
+        <v>114</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>313</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>235</v>
+      </c>
+      <c r="L18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" t="s">
+        <v>315</v>
+      </c>
+      <c r="O18" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>115</v>
+      </c>
+      <c r="R18" t="s">
+        <v>114</v>
+      </c>
+      <c r="S18" t="s">
+        <v>123</v>
+      </c>
+      <c r="T18" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" t="s">
+        <v>221</v>
+      </c>
+      <c r="J19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M19" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" t="s">
+        <v>223</v>
+      </c>
+      <c r="O19" t="s">
+        <v>138</v>
+      </c>
+      <c r="P19" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>114</v>
+      </c>
+      <c r="R19" t="s">
+        <v>114</v>
+      </c>
+      <c r="S19" t="s">
+        <v>160</v>
+      </c>
+      <c r="T19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>297</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>115</v>
+      </c>
+      <c r="N20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O20" t="s">
+        <v>160</v>
+      </c>
+      <c r="P20" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>115</v>
+      </c>
+      <c r="R20" t="s">
+        <v>115</v>
+      </c>
+      <c r="S20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" t="s">
+        <v>601</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>148</v>
+      </c>
+      <c r="K21" t="s">
+        <v>148</v>
+      </c>
+      <c r="L21" t="s">
+        <v>115</v>
+      </c>
+      <c r="M21" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" t="s">
+        <v>223</v>
+      </c>
+      <c r="O21" t="s">
+        <v>341</v>
+      </c>
+      <c r="P21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>114</v>
+      </c>
+      <c r="R21" t="s">
+        <v>115</v>
+      </c>
+      <c r="S21" t="s">
+        <v>160</v>
+      </c>
+      <c r="T21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>118</v>
+      </c>
+      <c r="I22" t="s">
+        <v>118</v>
+      </c>
+      <c r="J22" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" t="s">
+        <v>363</v>
+      </c>
+      <c r="L22" t="s">
+        <v>114</v>
+      </c>
+      <c r="M22" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" t="s">
+        <v>223</v>
+      </c>
+      <c r="O22" t="s">
+        <v>160</v>
+      </c>
+      <c r="P22" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22" t="s">
+        <v>115</v>
+      </c>
+      <c r="S22" t="s">
+        <v>341</v>
+      </c>
+      <c r="T22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>297</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>297</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" t="s">
+        <v>168</v>
+      </c>
+      <c r="N27" t="s">
+        <v>223</v>
+      </c>
+      <c r="P27" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>114</v>
+      </c>
+      <c r="R27" t="s">
+        <v>114</v>
+      </c>
+      <c r="T27" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>297</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>297</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J36" t="s">
+        <v>168</v>
+      </c>
+      <c r="K36" t="s">
+        <v>136</v>
+      </c>
+      <c r="L36" t="s">
+        <v>115</v>
+      </c>
+      <c r="M36" t="s">
+        <v>149</v>
+      </c>
+      <c r="N36" t="s">
+        <v>158</v>
+      </c>
+      <c r="O36" t="s">
+        <v>122</v>
+      </c>
+      <c r="P36" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>114</v>
+      </c>
+      <c r="R36" t="s">
+        <v>115</v>
+      </c>
+      <c r="S36" t="s">
+        <v>160</v>
+      </c>
+      <c r="T36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>446</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C37" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>452</v>
+      </c>
+      <c r="I37" t="s">
+        <v>135</v>
+      </c>
+      <c r="J37" t="s">
+        <v>136</v>
+      </c>
+      <c r="K37" t="s">
+        <v>136</v>
+      </c>
+      <c r="L37" t="s">
+        <v>115</v>
+      </c>
+      <c r="N37" t="s">
+        <v>223</v>
+      </c>
+      <c r="P37" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>115</v>
+      </c>
+      <c r="R37" t="s">
+        <v>115</v>
+      </c>
+      <c r="S37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>446</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" t="s">
+        <v>452</v>
+      </c>
+      <c r="J38" t="s">
+        <v>168</v>
+      </c>
+      <c r="K38" t="s">
+        <v>168</v>
+      </c>
+      <c r="L38" t="s">
+        <v>114</v>
+      </c>
+      <c r="M38" t="s">
+        <v>120</v>
+      </c>
+      <c r="N38" t="s">
+        <v>150</v>
+      </c>
+      <c r="O38" t="s">
+        <v>160</v>
+      </c>
+      <c r="P38" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>114</v>
+      </c>
+      <c r="R38" t="s">
+        <v>115</v>
+      </c>
+      <c r="S38" t="s">
+        <v>341</v>
+      </c>
+      <c r="T38" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>446</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E39" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>452</v>
+      </c>
+      <c r="I39" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" t="s">
+        <v>148</v>
+      </c>
+      <c r="K39" t="s">
+        <v>168</v>
+      </c>
+      <c r="L39" t="s">
+        <v>114</v>
+      </c>
+      <c r="M39" t="s">
+        <v>471</v>
+      </c>
+      <c r="N39" t="s">
+        <v>223</v>
+      </c>
+      <c r="O39" t="s">
+        <v>138</v>
+      </c>
+      <c r="P39" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>115</v>
+      </c>
+      <c r="R39" t="s">
+        <v>115</v>
+      </c>
+      <c r="S39" t="s">
+        <v>160</v>
+      </c>
+      <c r="T39" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>446</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" t="s">
+        <v>168</v>
+      </c>
+      <c r="L40" t="s">
+        <v>114</v>
+      </c>
+      <c r="M40" t="s">
+        <v>120</v>
+      </c>
+      <c r="N40" t="s">
+        <v>121</v>
+      </c>
+      <c r="O40" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>114</v>
+      </c>
+      <c r="R40" t="s">
+        <v>115</v>
+      </c>
+      <c r="S40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>446</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" t="s">
+        <v>118</v>
+      </c>
+      <c r="J41" t="s">
+        <v>168</v>
+      </c>
+      <c r="K41" t="s">
+        <v>168</v>
+      </c>
+      <c r="L41" t="s">
+        <v>115</v>
+      </c>
+      <c r="M41" t="s">
+        <v>120</v>
+      </c>
+      <c r="N41" t="s">
+        <v>223</v>
+      </c>
+      <c r="O41" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>114</v>
+      </c>
+      <c r="R41" t="s">
+        <v>115</v>
+      </c>
+      <c r="S41" t="s">
+        <v>1475</v>
+      </c>
+      <c r="T41" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>446</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E42" t="s">
+        <v>114</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" t="s">
+        <v>168</v>
+      </c>
+      <c r="K42" t="s">
+        <v>168</v>
+      </c>
+      <c r="L42" t="s">
+        <v>114</v>
+      </c>
+      <c r="N42" t="s">
+        <v>223</v>
+      </c>
+      <c r="O42" t="s">
+        <v>138</v>
+      </c>
+      <c r="P42" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>115</v>
+      </c>
+      <c r="R42" t="s">
+        <v>115</v>
+      </c>
+      <c r="S42" t="s">
+        <v>341</v>
+      </c>
+      <c r="T42" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>446</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E43" t="s">
+        <v>114</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>313</v>
+      </c>
+      <c r="I43" t="s">
+        <v>118</v>
+      </c>
+      <c r="J43" t="s">
+        <v>168</v>
+      </c>
+      <c r="K43" t="s">
+        <v>168</v>
+      </c>
+      <c r="L43" t="s">
+        <v>114</v>
+      </c>
+      <c r="N43" t="s">
+        <v>223</v>
+      </c>
+      <c r="O43" t="s">
+        <v>138</v>
+      </c>
+      <c r="P43" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>114</v>
+      </c>
+      <c r="R43" t="s">
+        <v>115</v>
+      </c>
+      <c r="S43" t="s">
+        <v>341</v>
+      </c>
+      <c r="T43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>446</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I44" t="s">
+        <v>529</v>
+      </c>
+      <c r="J44" t="s">
+        <v>868</v>
+      </c>
+      <c r="K44" t="s">
+        <v>168</v>
+      </c>
+      <c r="L44" t="s">
+        <v>115</v>
+      </c>
+      <c r="M44" t="s">
+        <v>236</v>
+      </c>
+      <c r="N44" t="s">
+        <v>223</v>
+      </c>
+      <c r="O44" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>115</v>
+      </c>
+      <c r="R44" t="s">
+        <v>114</v>
+      </c>
+      <c r="S44" t="s">
+        <v>531</v>
+      </c>
+      <c r="T44" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>446</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E45" t="s">
+        <v>114</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" t="s">
+        <v>452</v>
+      </c>
+      <c r="J45" t="s">
+        <v>136</v>
+      </c>
+      <c r="K45" t="s">
+        <v>168</v>
+      </c>
+      <c r="L45" t="s">
+        <v>114</v>
+      </c>
+      <c r="M45" t="s">
+        <v>236</v>
+      </c>
+      <c r="N45" t="s">
+        <v>223</v>
+      </c>
+      <c r="O45" t="s">
+        <v>160</v>
+      </c>
+      <c r="P45" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>115</v>
+      </c>
+      <c r="R45" t="s">
+        <v>115</v>
+      </c>
+      <c r="S45" t="s">
+        <v>1475</v>
+      </c>
+      <c r="T45" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>446</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" t="s">
+        <v>119</v>
+      </c>
+      <c r="K46" t="s">
+        <v>119</v>
+      </c>
+      <c r="L46" t="s">
+        <v>114</v>
+      </c>
+      <c r="M46" t="s">
+        <v>120</v>
+      </c>
+      <c r="N46" t="s">
+        <v>223</v>
+      </c>
+      <c r="O46" t="s">
+        <v>160</v>
+      </c>
+      <c r="P46" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>115</v>
+      </c>
+      <c r="R46" t="s">
+        <v>115</v>
+      </c>
+      <c r="S46" t="s">
+        <v>551</v>
+      </c>
+      <c r="T46" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>446</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>118</v>
+      </c>
+      <c r="I47" t="s">
+        <v>221</v>
+      </c>
+      <c r="J47" t="s">
+        <v>119</v>
+      </c>
+      <c r="K47" t="s">
+        <v>119</v>
+      </c>
+      <c r="L47" t="s">
+        <v>114</v>
+      </c>
+      <c r="M47" t="s">
+        <v>558</v>
+      </c>
+      <c r="N47" t="s">
+        <v>150</v>
+      </c>
+      <c r="O47" t="s">
+        <v>558</v>
+      </c>
+      <c r="P47" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>114</v>
+      </c>
+      <c r="R47" t="s">
+        <v>115</v>
+      </c>
+      <c r="S47" t="s">
+        <v>160</v>
+      </c>
+      <c r="T47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>560</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>446</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>118</v>
+      </c>
+      <c r="I49" t="s">
+        <v>313</v>
+      </c>
+      <c r="J49" t="s">
+        <v>168</v>
+      </c>
+      <c r="K49" t="s">
+        <v>168</v>
+      </c>
+      <c r="L49" t="s">
+        <v>114</v>
+      </c>
+      <c r="M49" t="s">
+        <v>120</v>
+      </c>
+      <c r="N49" t="s">
+        <v>158</v>
+      </c>
+      <c r="O49" t="s">
+        <v>138</v>
+      </c>
+      <c r="P49" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>114</v>
+      </c>
+      <c r="R49" t="s">
+        <v>115</v>
+      </c>
+      <c r="S49" t="s">
+        <v>160</v>
+      </c>
+      <c r="T49" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>446</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" t="s">
+        <v>168</v>
+      </c>
+      <c r="K50" t="s">
+        <v>168</v>
+      </c>
+      <c r="L50" t="s">
+        <v>115</v>
+      </c>
+      <c r="M50" t="s">
+        <v>756</v>
+      </c>
+      <c r="N50" t="s">
+        <v>315</v>
+      </c>
+      <c r="O50" t="s">
+        <v>138</v>
+      </c>
+      <c r="P50" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>115</v>
+      </c>
+      <c r="R50" t="s">
+        <v>114</v>
+      </c>
+      <c r="S50" t="s">
+        <v>341</v>
+      </c>
+      <c r="T50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>446</v>
+      </c>
+      <c r="B51" t="s">
+        <v>596</v>
+      </c>
+      <c r="C51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E51" t="s">
+        <v>115</v>
+      </c>
+      <c r="M51" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>446</v>
+      </c>
+      <c r="B52" t="s">
+        <v>601</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>118</v>
+      </c>
+      <c r="I52" t="s">
+        <v>135</v>
+      </c>
+      <c r="J52" t="s">
+        <v>235</v>
+      </c>
+      <c r="K52" t="s">
+        <v>270</v>
+      </c>
+      <c r="L52" t="s">
+        <v>115</v>
+      </c>
+      <c r="M52" t="s">
+        <v>149</v>
+      </c>
+      <c r="N52" t="s">
+        <v>150</v>
+      </c>
+      <c r="O52" t="s">
+        <v>138</v>
+      </c>
+      <c r="P52" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>114</v>
+      </c>
+      <c r="R52" t="s">
+        <v>115</v>
+      </c>
+      <c r="S52" t="s">
+        <v>341</v>
+      </c>
+      <c r="T52" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>607</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E53" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" t="s">
+        <v>135</v>
+      </c>
+      <c r="J53" t="s">
+        <v>168</v>
+      </c>
+      <c r="K53" t="s">
+        <v>168</v>
+      </c>
+      <c r="L53" t="s">
+        <v>115</v>
+      </c>
+      <c r="M53" t="s">
+        <v>149</v>
+      </c>
+      <c r="N53" t="s">
+        <v>158</v>
+      </c>
+      <c r="O53" t="s">
+        <v>138</v>
+      </c>
+      <c r="P53" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>114</v>
+      </c>
+      <c r="R53" t="s">
+        <v>114</v>
+      </c>
+      <c r="S53" t="s">
+        <v>341</v>
+      </c>
+      <c r="T53" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>446</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C54" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>446</v>
+      </c>
+      <c r="B55" t="s">
+        <v>624</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" t="s">
+        <v>135</v>
+      </c>
+      <c r="J55" t="s">
+        <v>148</v>
+      </c>
+      <c r="K55" t="s">
+        <v>148</v>
+      </c>
+      <c r="L55" t="s">
+        <v>114</v>
+      </c>
+      <c r="M55" t="s">
+        <v>149</v>
+      </c>
+      <c r="N55" t="s">
+        <v>158</v>
+      </c>
+      <c r="O55" t="s">
+        <v>138</v>
+      </c>
+      <c r="P55" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>115</v>
+      </c>
+      <c r="R55" t="s">
+        <v>115</v>
+      </c>
+      <c r="S55" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>446</v>
+      </c>
+      <c r="B56" t="s">
+        <v>635</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>446</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E57" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>118</v>
+      </c>
+      <c r="I57" t="s">
+        <v>118</v>
+      </c>
+      <c r="J57" t="s">
+        <v>148</v>
+      </c>
+      <c r="K57" t="s">
+        <v>270</v>
+      </c>
+      <c r="L57" t="s">
+        <v>114</v>
+      </c>
+      <c r="M57" t="s">
+        <v>120</v>
+      </c>
+      <c r="N57" t="s">
+        <v>223</v>
+      </c>
+      <c r="O57" t="s">
+        <v>341</v>
+      </c>
+      <c r="P57" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>115</v>
+      </c>
+      <c r="R57" t="s">
+        <v>115</v>
+      </c>
+      <c r="S57" t="s">
+        <v>341</v>
+      </c>
+      <c r="T57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>446</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>446</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>118</v>
+      </c>
+      <c r="L59" t="s">
+        <v>114</v>
+      </c>
+      <c r="M59" t="s">
+        <v>149</v>
+      </c>
+      <c r="N59" t="s">
+        <v>150</v>
+      </c>
+      <c r="O59" t="s">
+        <v>341</v>
+      </c>
+      <c r="P59" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>114</v>
+      </c>
+      <c r="R59" t="s">
+        <v>115</v>
+      </c>
+      <c r="S59" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>446</v>
+      </c>
+      <c r="B60" t="s">
+        <v>659</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60">
+        <v>4</v>
+      </c>
+      <c r="J60" t="s">
+        <v>202</v>
+      </c>
+      <c r="K60" t="s">
+        <v>270</v>
+      </c>
+      <c r="L60" t="s">
+        <v>114</v>
+      </c>
+      <c r="M60" t="s">
+        <v>662</v>
+      </c>
+      <c r="N60" t="s">
+        <v>605</v>
+      </c>
+      <c r="O60" t="s">
+        <v>122</v>
+      </c>
+      <c r="P60" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>114</v>
+      </c>
+      <c r="R60" t="s">
+        <v>115</v>
+      </c>
+      <c r="S60" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>446</v>
+      </c>
+      <c r="B61" t="s">
+        <v>624</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>148</v>
+      </c>
+      <c r="K61" t="s">
+        <v>148</v>
+      </c>
+      <c r="L61" t="s">
+        <v>114</v>
+      </c>
+      <c r="M61" t="s">
+        <v>149</v>
+      </c>
+      <c r="N61" t="s">
+        <v>158</v>
+      </c>
+      <c r="O61" t="s">
+        <v>122</v>
+      </c>
+      <c r="P61" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>114</v>
+      </c>
+      <c r="R61" t="s">
+        <v>115</v>
+      </c>
+      <c r="S61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>446</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>148</v>
+      </c>
+      <c r="K62" t="s">
+        <v>235</v>
+      </c>
+      <c r="L62" t="s">
+        <v>115</v>
+      </c>
+      <c r="M62" t="s">
+        <v>149</v>
+      </c>
+      <c r="N62" t="s">
+        <v>158</v>
+      </c>
+      <c r="O62" t="s">
+        <v>138</v>
+      </c>
+      <c r="P62" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>114</v>
+      </c>
+      <c r="R62" t="s">
+        <v>115</v>
+      </c>
+      <c r="S62" t="s">
+        <v>626</v>
+      </c>
+      <c r="T62" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>446</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>446</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C64" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>607</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E65" t="s">
+        <v>114</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>452</v>
+      </c>
+      <c r="I65" t="s">
+        <v>118</v>
+      </c>
+      <c r="J65" t="s">
+        <v>148</v>
+      </c>
+      <c r="K65" t="s">
+        <v>148</v>
+      </c>
+      <c r="L65" t="s">
+        <v>114</v>
+      </c>
+      <c r="M65" t="s">
+        <v>149</v>
+      </c>
+      <c r="N65" t="s">
+        <v>223</v>
+      </c>
+      <c r="O65" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>114</v>
+      </c>
+      <c r="R65" t="s">
+        <v>115</v>
+      </c>
+      <c r="S65" t="s">
+        <v>626</v>
+      </c>
+      <c r="T65" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>607</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E66" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>711</v>
+      </c>
+      <c r="B67" t="s">
+        <v>716</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" t="s">
+        <v>815</v>
+      </c>
+      <c r="E67" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>118</v>
+      </c>
+      <c r="I67" t="s">
+        <v>118</v>
+      </c>
+      <c r="J67" t="s">
+        <v>168</v>
+      </c>
+      <c r="K67" t="s">
+        <v>168</v>
+      </c>
+      <c r="L67" t="s">
+        <v>114</v>
+      </c>
+      <c r="M67" t="s">
+        <v>236</v>
+      </c>
+      <c r="N67" t="s">
+        <v>150</v>
+      </c>
+      <c r="O67" t="s">
+        <v>160</v>
+      </c>
+      <c r="P67" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>115</v>
+      </c>
+      <c r="R67" t="s">
+        <v>115</v>
+      </c>
+      <c r="S67" t="s">
+        <v>160</v>
+      </c>
+      <c r="T67" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>711</v>
+      </c>
+      <c r="B68" t="s">
+        <v>725</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s">
+        <v>815</v>
+      </c>
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>201</v>
+      </c>
+      <c r="I68" t="s">
+        <v>201</v>
+      </c>
+      <c r="J68" t="s">
+        <v>168</v>
+      </c>
+      <c r="K68" t="s">
+        <v>168</v>
+      </c>
+      <c r="L68" t="s">
+        <v>114</v>
+      </c>
+      <c r="N68" t="s">
+        <v>223</v>
+      </c>
+      <c r="O68" t="s">
+        <v>138</v>
+      </c>
+      <c r="P68" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>114</v>
+      </c>
+      <c r="R68" t="s">
+        <v>115</v>
+      </c>
+      <c r="S68" t="s">
+        <v>160</v>
+      </c>
+      <c r="T68" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>711</v>
+      </c>
+      <c r="B69" t="s">
+        <v>659</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E69" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>118</v>
+      </c>
+      <c r="I69" t="s">
+        <v>135</v>
+      </c>
+      <c r="J69" t="s">
+        <v>168</v>
+      </c>
+      <c r="K69" t="s">
+        <v>168</v>
+      </c>
+      <c r="L69" t="s">
+        <v>114</v>
+      </c>
+      <c r="M69" t="s">
+        <v>662</v>
+      </c>
+      <c r="N69" t="s">
+        <v>158</v>
+      </c>
+      <c r="O69" t="s">
+        <v>122</v>
+      </c>
+      <c r="P69" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>114</v>
+      </c>
+      <c r="R69" t="s">
+        <v>115</v>
+      </c>
+      <c r="S69" t="s">
+        <v>341</v>
+      </c>
+      <c r="T69" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>711</v>
+      </c>
+      <c r="B70" t="s">
+        <v>659</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E70" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70">
+        <v>50</v>
+      </c>
+      <c r="G70">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>118</v>
+      </c>
+      <c r="I70" t="s">
+        <v>118</v>
+      </c>
+      <c r="J70" t="s">
+        <v>148</v>
+      </c>
+      <c r="K70" t="s">
+        <v>119</v>
+      </c>
+      <c r="L70" t="s">
+        <v>114</v>
+      </c>
+      <c r="M70" t="s">
+        <v>149</v>
+      </c>
+      <c r="N70" t="s">
+        <v>158</v>
+      </c>
+      <c r="O70" t="s">
+        <v>138</v>
+      </c>
+      <c r="P70" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>114</v>
+      </c>
+      <c r="R70" t="s">
+        <v>115</v>
+      </c>
+      <c r="S70" t="s">
+        <v>341</v>
+      </c>
+      <c r="T70" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>607</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E71" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>452</v>
+      </c>
+      <c r="I71" t="s">
+        <v>221</v>
+      </c>
+      <c r="J71" t="s">
+        <v>168</v>
+      </c>
+      <c r="K71" t="s">
+        <v>119</v>
+      </c>
+      <c r="L71" t="s">
+        <v>114</v>
+      </c>
+      <c r="M71" t="s">
+        <v>756</v>
+      </c>
+      <c r="N71" t="s">
+        <v>158</v>
+      </c>
+      <c r="O71" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>114</v>
+      </c>
+      <c r="R71" t="s">
+        <v>114</v>
+      </c>
+      <c r="S71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>607</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E72" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72">
+        <v>4</v>
+      </c>
+      <c r="G72">
+        <v>4</v>
+      </c>
+      <c r="H72" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" t="s">
+        <v>221</v>
+      </c>
+      <c r="J72" t="s">
+        <v>148</v>
+      </c>
+      <c r="K72" t="s">
+        <v>119</v>
+      </c>
+      <c r="L72" t="s">
+        <v>115</v>
+      </c>
+      <c r="M72" t="s">
+        <v>756</v>
+      </c>
+      <c r="N72" t="s">
+        <v>150</v>
+      </c>
+      <c r="O72" t="s">
+        <v>138</v>
+      </c>
+      <c r="P72" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>114</v>
+      </c>
+      <c r="R72" t="s">
+        <v>115</v>
+      </c>
+      <c r="S72" t="s">
+        <v>123</v>
+      </c>
+      <c r="T72" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>560</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E73" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>118</v>
+      </c>
+      <c r="I73" t="s">
+        <v>118</v>
+      </c>
+      <c r="J73" t="s">
+        <v>168</v>
+      </c>
+      <c r="K73" t="s">
+        <v>168</v>
+      </c>
+      <c r="L73" t="s">
+        <v>115</v>
+      </c>
+      <c r="N73" t="s">
+        <v>223</v>
+      </c>
+      <c r="O73" t="s">
+        <v>341</v>
+      </c>
+      <c r="P73" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>114</v>
+      </c>
+      <c r="R73" t="s">
+        <v>114</v>
+      </c>
+      <c r="S73" t="s">
+        <v>341</v>
+      </c>
+      <c r="T73" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>776</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E74" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="J74" t="s">
+        <v>136</v>
+      </c>
+      <c r="K74" t="s">
+        <v>136</v>
+      </c>
+      <c r="L74" t="s">
+        <v>115</v>
+      </c>
+      <c r="M74" t="s">
+        <v>120</v>
+      </c>
+      <c r="N74" t="s">
+        <v>158</v>
+      </c>
+      <c r="O74" t="s">
+        <v>138</v>
+      </c>
+      <c r="P74" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>114</v>
+      </c>
+      <c r="R74" t="s">
+        <v>115</v>
+      </c>
+      <c r="S74" t="s">
+        <v>341</v>
+      </c>
+      <c r="T74" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>560</v>
+      </c>
+      <c r="B75" t="s">
+        <v>907</v>
+      </c>
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E75" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>4</v>
+      </c>
+      <c r="H75" t="s">
+        <v>452</v>
+      </c>
+      <c r="I75" t="s">
+        <v>135</v>
+      </c>
+      <c r="J75" t="s">
+        <v>119</v>
+      </c>
+      <c r="K75" t="s">
+        <v>119</v>
+      </c>
+      <c r="L75" t="s">
+        <v>114</v>
+      </c>
+      <c r="M75" t="s">
+        <v>149</v>
+      </c>
+      <c r="N75" t="s">
+        <v>121</v>
+      </c>
+      <c r="O75" t="s">
+        <v>138</v>
+      </c>
+      <c r="P75" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>114</v>
+      </c>
+      <c r="R75" t="s">
+        <v>115</v>
+      </c>
+      <c r="S75" t="s">
+        <v>160</v>
+      </c>
+      <c r="T75" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>560</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" t="s">
+        <v>815</v>
+      </c>
+      <c r="E76" t="s">
+        <v>114</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>118</v>
+      </c>
+      <c r="I76" t="s">
+        <v>118</v>
+      </c>
+      <c r="J76" t="s">
+        <v>168</v>
+      </c>
+      <c r="K76" t="s">
+        <v>168</v>
+      </c>
+      <c r="L76" t="s">
+        <v>114</v>
+      </c>
+      <c r="N76" t="s">
+        <v>223</v>
+      </c>
+      <c r="O76" t="s">
+        <v>869</v>
+      </c>
+      <c r="P76" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>115</v>
+      </c>
+      <c r="R76" t="s">
+        <v>115</v>
+      </c>
+      <c r="S76" t="s">
+        <v>160</v>
+      </c>
+      <c r="T76" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>560</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" t="s">
+        <v>815</v>
+      </c>
+      <c r="E77" t="s">
+        <v>114</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>118</v>
+      </c>
+      <c r="I77" t="s">
+        <v>118</v>
+      </c>
+      <c r="J77" t="s">
+        <v>136</v>
+      </c>
+      <c r="K77" t="s">
+        <v>168</v>
+      </c>
+      <c r="L77" t="s">
+        <v>114</v>
+      </c>
+      <c r="N77" t="s">
+        <v>223</v>
+      </c>
+      <c r="O77" t="s">
+        <v>138</v>
+      </c>
+      <c r="P77" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>115</v>
+      </c>
+      <c r="R77" t="s">
+        <v>115</v>
+      </c>
+      <c r="S77" t="s">
+        <v>160</v>
+      </c>
+      <c r="T77" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>560</v>
+      </c>
+      <c r="B78" t="s">
+        <v>907</v>
+      </c>
+      <c r="C78" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E78" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>118</v>
+      </c>
+      <c r="I78" t="s">
+        <v>118</v>
+      </c>
+      <c r="J78" t="s">
+        <v>168</v>
+      </c>
+      <c r="K78" t="s">
+        <v>168</v>
+      </c>
+      <c r="L78" t="s">
+        <v>114</v>
+      </c>
+      <c r="M78" t="s">
+        <v>149</v>
+      </c>
+      <c r="N78" t="s">
+        <v>150</v>
+      </c>
+      <c r="O78" t="s">
+        <v>138</v>
+      </c>
+      <c r="P78" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>114</v>
+      </c>
+      <c r="R78" t="s">
+        <v>114</v>
+      </c>
+      <c r="S78" t="s">
+        <v>826</v>
+      </c>
+      <c r="T78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>711</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C79" t="s">
+        <v>114</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E79" t="s">
+        <v>114</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>118</v>
+      </c>
+      <c r="I79" t="s">
+        <v>135</v>
+      </c>
+      <c r="J79" t="s">
+        <v>202</v>
+      </c>
+      <c r="K79" t="s">
+        <v>168</v>
+      </c>
+      <c r="L79" t="s">
+        <v>114</v>
+      </c>
+      <c r="M79" t="s">
+        <v>120</v>
+      </c>
+      <c r="N79" t="s">
+        <v>158</v>
+      </c>
+      <c r="O79" t="s">
+        <v>138</v>
+      </c>
+      <c r="P79" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>114</v>
+      </c>
+      <c r="R79" t="s">
+        <v>115</v>
+      </c>
+      <c r="S79" t="s">
+        <v>341</v>
+      </c>
+      <c r="T79" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>711</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E80" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>452</v>
+      </c>
+      <c r="I80" t="s">
+        <v>118</v>
+      </c>
+      <c r="J80" t="s">
+        <v>136</v>
+      </c>
+      <c r="K80" t="s">
+        <v>168</v>
+      </c>
+      <c r="L80" t="s">
+        <v>114</v>
+      </c>
+      <c r="N80" t="s">
+        <v>223</v>
+      </c>
+      <c r="O80" t="s">
+        <v>160</v>
+      </c>
+      <c r="P80" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>114</v>
+      </c>
+      <c r="R80" t="s">
+        <v>114</v>
+      </c>
+      <c r="S80" t="s">
+        <v>341</v>
+      </c>
+      <c r="T80" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>711</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C81" t="s">
+        <v>114</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81" t="s">
+        <v>118</v>
+      </c>
+      <c r="I81" t="s">
+        <v>201</v>
+      </c>
+      <c r="J81" t="s">
+        <v>202</v>
+      </c>
+      <c r="K81" t="s">
+        <v>202</v>
+      </c>
+      <c r="L81" t="s">
+        <v>114</v>
+      </c>
+      <c r="M81" t="s">
+        <v>662</v>
+      </c>
+      <c r="N81" t="s">
+        <v>121</v>
+      </c>
+      <c r="O81" t="s">
+        <v>138</v>
+      </c>
+      <c r="P81" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>115</v>
+      </c>
+      <c r="R81" t="s">
+        <v>115</v>
+      </c>
+      <c r="S81" t="s">
+        <v>122</v>
+      </c>
+      <c r="T81" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>560</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C82" t="s">
+        <v>115</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E82" t="s">
+        <v>114</v>
+      </c>
+      <c r="F82">
+        <v>5</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>118</v>
+      </c>
+      <c r="I82" t="s">
+        <v>201</v>
+      </c>
+      <c r="J82" t="s">
+        <v>868</v>
+      </c>
+      <c r="K82" t="s">
+        <v>168</v>
+      </c>
+      <c r="L82" t="s">
+        <v>115</v>
+      </c>
+      <c r="N82" t="s">
+        <v>121</v>
+      </c>
+      <c r="O82" t="s">
+        <v>869</v>
+      </c>
+      <c r="P82" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>114</v>
+      </c>
+      <c r="R82" t="s">
+        <v>115</v>
+      </c>
+      <c r="S82" t="s">
+        <v>160</v>
+      </c>
+      <c r="T82" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>297</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C83" t="s">
+        <v>115</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>297</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>297</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E85" t="s">
+        <v>114</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>529</v>
+      </c>
+      <c r="J85" t="s">
+        <v>168</v>
+      </c>
+      <c r="K85" t="s">
+        <v>168</v>
+      </c>
+      <c r="L85" t="s">
+        <v>114</v>
+      </c>
+      <c r="M85" t="s">
+        <v>120</v>
+      </c>
+      <c r="N85" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>114</v>
+      </c>
+      <c r="R85" t="s">
+        <v>115</v>
+      </c>
+      <c r="T85" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>297</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>297</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" t="s">
+        <v>907</v>
+      </c>
+      <c r="C88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E88" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>118</v>
+      </c>
+      <c r="J88" t="s">
+        <v>148</v>
+      </c>
+      <c r="K88" t="s">
+        <v>148</v>
+      </c>
+      <c r="L88" t="s">
+        <v>114</v>
+      </c>
+      <c r="M88" t="s">
+        <v>149</v>
+      </c>
+      <c r="N88" t="s">
+        <v>150</v>
+      </c>
+      <c r="P88" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>114</v>
+      </c>
+      <c r="R88" t="s">
+        <v>114</v>
+      </c>
+      <c r="S88" t="s">
+        <v>626</v>
+      </c>
+      <c r="T88" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>297</v>
+      </c>
+      <c r="B89" t="s">
+        <v>916</v>
+      </c>
+      <c r="C89" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>297</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C90" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>297</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>297</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E92" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>297</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>297</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E95" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95" t="s">
+        <v>118</v>
+      </c>
+      <c r="I95" t="s">
+        <v>118</v>
+      </c>
+      <c r="J95" t="s">
+        <v>202</v>
+      </c>
+      <c r="K95" t="s">
+        <v>202</v>
+      </c>
+      <c r="L95" t="s">
+        <v>114</v>
+      </c>
+      <c r="N95" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>115</v>
+      </c>
+      <c r="R95" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>560</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E96" t="s">
+        <v>114</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>118</v>
+      </c>
+      <c r="I96" t="s">
+        <v>118</v>
+      </c>
+      <c r="J96" t="s">
+        <v>136</v>
+      </c>
+      <c r="K96" t="s">
+        <v>136</v>
+      </c>
+      <c r="L96" t="s">
+        <v>114</v>
+      </c>
+      <c r="N96" t="s">
+        <v>223</v>
+      </c>
+      <c r="O96" t="s">
+        <v>160</v>
+      </c>
+      <c r="P96" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>115</v>
+      </c>
+      <c r="R96" t="s">
+        <v>115</v>
+      </c>
+      <c r="S96" t="s">
+        <v>160</v>
+      </c>
+      <c r="T96" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>297</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>297</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" t="s">
+        <v>953</v>
+      </c>
+      <c r="E98" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>118</v>
+      </c>
+      <c r="I98" t="s">
+        <v>118</v>
+      </c>
+      <c r="J98" t="s">
+        <v>168</v>
+      </c>
+      <c r="K98" t="s">
+        <v>168</v>
+      </c>
+      <c r="L98" t="s">
+        <v>114</v>
+      </c>
+      <c r="M98" t="s">
+        <v>955</v>
+      </c>
+      <c r="N98" t="s">
+        <v>223</v>
+      </c>
+      <c r="O98" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>115</v>
+      </c>
+      <c r="R98" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>297</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E99" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E100" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>297</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E101" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>118</v>
+      </c>
+      <c r="J101" t="s">
+        <v>136</v>
+      </c>
+      <c r="K101" t="s">
+        <v>136</v>
+      </c>
+      <c r="N101" t="s">
+        <v>121</v>
+      </c>
+      <c r="O101" t="s">
+        <v>138</v>
+      </c>
+      <c r="P101" t="s">
+        <v>140</v>
+      </c>
+      <c r="R101" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>297</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E102" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>297</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C103" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E103" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>297</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E104" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>297</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E105" t="s">
+        <v>114</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>148</v>
+      </c>
+      <c r="K105" t="s">
+        <v>148</v>
+      </c>
+      <c r="M105" t="s">
+        <v>149</v>
+      </c>
+      <c r="N105" t="s">
+        <v>121</v>
+      </c>
+      <c r="O105" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>114</v>
+      </c>
+      <c r="R105" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>297</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C106" t="s">
+        <v>115</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>297</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E107" t="s">
+        <v>114</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>201</v>
+      </c>
+      <c r="J107" t="s">
+        <v>119</v>
+      </c>
+      <c r="K107" t="s">
+        <v>119</v>
+      </c>
+      <c r="L107" t="s">
+        <v>114</v>
+      </c>
+      <c r="N107" t="s">
+        <v>223</v>
+      </c>
+      <c r="O107" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>114</v>
+      </c>
+      <c r="R107" t="s">
+        <v>115</v>
+      </c>
+      <c r="S107" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>297</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C108" t="s">
+        <v>115</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E108" t="s">
+        <v>114</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>452</v>
+      </c>
+      <c r="I108" t="s">
+        <v>118</v>
+      </c>
+      <c r="J108" t="s">
+        <v>168</v>
+      </c>
+      <c r="K108" t="s">
+        <v>168</v>
+      </c>
+      <c r="L108" t="s">
+        <v>115</v>
+      </c>
+      <c r="M108" t="s">
+        <v>558</v>
+      </c>
+      <c r="N108" t="s">
+        <v>223</v>
+      </c>
+      <c r="O108" t="s">
+        <v>160</v>
+      </c>
+      <c r="P108" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>115</v>
+      </c>
+      <c r="R108" t="s">
+        <v>115</v>
+      </c>
+      <c r="S108" t="s">
+        <v>341</v>
+      </c>
+      <c r="T108" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>297</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" t="s">
+        <v>815</v>
+      </c>
+      <c r="E109" t="s">
+        <v>114</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>118</v>
+      </c>
+      <c r="I109" t="s">
+        <v>118</v>
+      </c>
+      <c r="J109" t="s">
+        <v>148</v>
+      </c>
+      <c r="K109" t="s">
+        <v>148</v>
+      </c>
+      <c r="L109" t="s">
+        <v>114</v>
+      </c>
+      <c r="M109" t="s">
+        <v>149</v>
+      </c>
+      <c r="N109" t="s">
+        <v>223</v>
+      </c>
+      <c r="O109" t="s">
+        <v>122</v>
+      </c>
+      <c r="P109" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>115</v>
+      </c>
+      <c r="R109" t="s">
+        <v>115</v>
+      </c>
+      <c r="S109" t="s">
+        <v>160</v>
+      </c>
+      <c r="T109" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>297</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C110" t="s">
+        <v>114</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E110" t="s">
+        <v>114</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+      <c r="H110" t="s">
+        <v>118</v>
+      </c>
+      <c r="I110" t="s">
+        <v>118</v>
+      </c>
+      <c r="J110" t="s">
+        <v>168</v>
+      </c>
+      <c r="K110" t="s">
+        <v>168</v>
+      </c>
+      <c r="L110" t="s">
+        <v>115</v>
+      </c>
+      <c r="N110" t="s">
+        <v>150</v>
+      </c>
+      <c r="O110" t="s">
+        <v>341</v>
+      </c>
+      <c r="P110" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>114</v>
+      </c>
+      <c r="R110" t="s">
+        <v>114</v>
+      </c>
+      <c r="S110" t="s">
+        <v>341</v>
+      </c>
+      <c r="T110" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>297</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>297</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E112" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>297</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C113" t="s">
+        <v>114</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E113" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>297</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C114" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E114" t="s">
+        <v>114</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="J114" t="s">
+        <v>168</v>
+      </c>
+      <c r="K114" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>297</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C115" t="s">
+        <v>115</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E115" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>118</v>
+      </c>
+      <c r="I115" t="s">
+        <v>118</v>
+      </c>
+      <c r="J115" t="s">
+        <v>168</v>
+      </c>
+      <c r="K115" t="s">
+        <v>168</v>
+      </c>
+      <c r="L115" t="s">
+        <v>115</v>
+      </c>
+      <c r="M115" t="s">
+        <v>120</v>
+      </c>
+      <c r="N115" t="s">
+        <v>223</v>
+      </c>
+      <c r="O115" t="s">
+        <v>122</v>
+      </c>
+      <c r="P115" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>115</v>
+      </c>
+      <c r="R115" t="s">
+        <v>115</v>
+      </c>
+      <c r="S115" t="s">
+        <v>160</v>
+      </c>
+      <c r="T115" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>297</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C116" t="s">
+        <v>115</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E116" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>297</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C117" t="s">
+        <v>115</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E117" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>297</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C118" t="s">
+        <v>115</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E118" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C119" t="s">
+        <v>115</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E119" t="s">
+        <v>114</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>118</v>
+      </c>
+      <c r="J119" t="s">
+        <v>119</v>
+      </c>
+      <c r="K119" t="s">
+        <v>119</v>
+      </c>
+      <c r="N119" t="s">
+        <v>158</v>
+      </c>
+      <c r="P119" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>114</v>
+      </c>
+      <c r="R119" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>297</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C120" t="s">
+        <v>115</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E120" t="s">
+        <v>114</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120">
+        <v>4</v>
+      </c>
+      <c r="H120" t="s">
+        <v>118</v>
+      </c>
+      <c r="I120" t="s">
+        <v>135</v>
+      </c>
+      <c r="J120" t="s">
+        <v>119</v>
+      </c>
+      <c r="K120" t="s">
+        <v>119</v>
+      </c>
+      <c r="L120" t="s">
+        <v>114</v>
+      </c>
+      <c r="M120" t="s">
+        <v>120</v>
+      </c>
+      <c r="N120" t="s">
+        <v>150</v>
+      </c>
+      <c r="O120" t="s">
+        <v>160</v>
+      </c>
+      <c r="P120" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>114</v>
+      </c>
+      <c r="R120" t="s">
+        <v>115</v>
+      </c>
+      <c r="S120" t="s">
+        <v>160</v>
+      </c>
+      <c r="T120" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>297</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C121" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E121" t="s">
+        <v>114</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+      <c r="H121" t="s">
+        <v>118</v>
+      </c>
+      <c r="I121" t="s">
+        <v>118</v>
+      </c>
+      <c r="J121" t="s">
+        <v>119</v>
+      </c>
+      <c r="K121" t="s">
+        <v>119</v>
+      </c>
+      <c r="L121" t="s">
+        <v>114</v>
+      </c>
+      <c r="M121" t="s">
+        <v>756</v>
+      </c>
+      <c r="N121" t="s">
+        <v>150</v>
+      </c>
+      <c r="O121" t="s">
+        <v>122</v>
+      </c>
+      <c r="P121" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>114</v>
+      </c>
+      <c r="R121" t="s">
+        <v>115</v>
+      </c>
+      <c r="S121" t="s">
+        <v>160</v>
+      </c>
+      <c r="T121" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>297</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C122" t="s">
+        <v>114</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E122" t="s">
+        <v>115</v>
+      </c>
+      <c r="M122" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>297</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C123" t="s">
+        <v>115</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E123" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>297</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C124" t="s">
+        <v>115</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E124" t="s">
+        <v>114</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>221</v>
+      </c>
+      <c r="I124" t="s">
+        <v>135</v>
+      </c>
+      <c r="J124" t="s">
+        <v>202</v>
+      </c>
+      <c r="K124" t="s">
+        <v>202</v>
+      </c>
+      <c r="L124" t="s">
+        <v>114</v>
+      </c>
+      <c r="M124" t="s">
+        <v>756</v>
+      </c>
+      <c r="N124" t="s">
+        <v>158</v>
+      </c>
+      <c r="O124" t="s">
+        <v>138</v>
+      </c>
+      <c r="P124" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>114</v>
+      </c>
+      <c r="R124" t="s">
+        <v>115</v>
+      </c>
+      <c r="S124" t="s">
+        <v>160</v>
+      </c>
+      <c r="T124" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>776</v>
+      </c>
+      <c r="B125" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C125" t="s">
+        <v>115</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E125" t="s">
+        <v>114</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>118</v>
+      </c>
+      <c r="I125" t="s">
+        <v>118</v>
+      </c>
+      <c r="J125" t="s">
+        <v>168</v>
+      </c>
+      <c r="K125" t="s">
+        <v>168</v>
+      </c>
+      <c r="L125" t="s">
+        <v>115</v>
+      </c>
+      <c r="M125" t="s">
+        <v>756</v>
+      </c>
+      <c r="N125" t="s">
+        <v>121</v>
+      </c>
+      <c r="O125" t="s">
+        <v>122</v>
+      </c>
+      <c r="P125" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>114</v>
+      </c>
+      <c r="R125" t="s">
+        <v>115</v>
+      </c>
+      <c r="S125" t="s">
+        <v>341</v>
+      </c>
+      <c r="T125" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>297</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C126" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E126" t="s">
+        <v>114</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>452</v>
+      </c>
+      <c r="I126" t="s">
+        <v>452</v>
+      </c>
+      <c r="J126" t="s">
+        <v>168</v>
+      </c>
+      <c r="K126" t="s">
+        <v>168</v>
+      </c>
+      <c r="L126" t="s">
+        <v>114</v>
+      </c>
+      <c r="N126" t="s">
+        <v>223</v>
+      </c>
+      <c r="O126" t="s">
+        <v>160</v>
+      </c>
+      <c r="P126" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>115</v>
+      </c>
+      <c r="R126" t="s">
+        <v>115</v>
+      </c>
+      <c r="S126" t="s">
+        <v>160</v>
+      </c>
+      <c r="T126" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>297</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C127" t="s">
+        <v>115</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E127" t="s">
+        <v>114</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>118</v>
+      </c>
+      <c r="J127" t="s">
+        <v>136</v>
+      </c>
+      <c r="K127" t="s">
+        <v>136</v>
+      </c>
+      <c r="O127" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>115</v>
+      </c>
+      <c r="R127" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>297</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C128" t="s">
+        <v>115</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E128" t="s">
+        <v>114</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>118</v>
+      </c>
+      <c r="J128" t="s">
+        <v>168</v>
+      </c>
+      <c r="K128" t="s">
+        <v>168</v>
+      </c>
+      <c r="N128" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>115</v>
+      </c>
+      <c r="R128" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>297</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C129" t="s">
+        <v>115</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E129" t="s">
+        <v>114</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>118</v>
+      </c>
+      <c r="J129" t="s">
+        <v>168</v>
+      </c>
+      <c r="K129" t="s">
+        <v>168</v>
+      </c>
+      <c r="N129" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>115</v>
+      </c>
+      <c r="R129" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>297</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C130" t="s">
+        <v>115</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E130" t="s">
+        <v>114</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>313</v>
+      </c>
+      <c r="J130" t="s">
+        <v>136</v>
+      </c>
+      <c r="K130" t="s">
+        <v>136</v>
+      </c>
+      <c r="R130" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>297</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C131" t="s">
+        <v>115</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E131" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>297</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C132" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E132" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>297</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C133" t="s">
+        <v>114</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E133" t="s">
+        <v>114</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133" t="s">
+        <v>118</v>
+      </c>
+      <c r="J133" t="s">
+        <v>148</v>
+      </c>
+      <c r="K133" t="s">
+        <v>148</v>
+      </c>
+      <c r="M133" t="s">
+        <v>149</v>
+      </c>
+      <c r="N133" t="s">
+        <v>150</v>
+      </c>
+      <c r="O133" t="s">
+        <v>138</v>
+      </c>
+      <c r="P133" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>114</v>
+      </c>
+      <c r="T133" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>607</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C134" t="s">
+        <v>114</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E134" t="s">
+        <v>114</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>118</v>
+      </c>
+      <c r="I134" t="s">
+        <v>118</v>
+      </c>
+      <c r="J134" t="s">
+        <v>168</v>
+      </c>
+      <c r="K134" t="s">
+        <v>168</v>
+      </c>
+      <c r="L134" t="s">
+        <v>115</v>
+      </c>
+      <c r="M134" t="s">
+        <v>236</v>
+      </c>
+      <c r="N134" t="s">
+        <v>121</v>
+      </c>
+      <c r="O134" t="s">
+        <v>341</v>
+      </c>
+      <c r="P134" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>114</v>
+      </c>
+      <c r="R134" t="s">
+        <v>115</v>
+      </c>
+      <c r="S134" t="s">
+        <v>341</v>
+      </c>
+      <c r="T134" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>607</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C135" t="s">
+        <v>115</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E135" t="s">
+        <v>114</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135" t="s">
+        <v>452</v>
+      </c>
+      <c r="I135" t="s">
+        <v>452</v>
+      </c>
+      <c r="J135" t="s">
+        <v>168</v>
+      </c>
+      <c r="K135" t="s">
+        <v>168</v>
+      </c>
+      <c r="L135" t="s">
+        <v>114</v>
+      </c>
+      <c r="M135" t="s">
+        <v>120</v>
+      </c>
+      <c r="N135" t="s">
+        <v>158</v>
+      </c>
+      <c r="O135" t="s">
+        <v>122</v>
+      </c>
+      <c r="P135" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>114</v>
+      </c>
+      <c r="R135" t="s">
+        <v>115</v>
+      </c>
+      <c r="S135" t="s">
+        <v>138</v>
+      </c>
+      <c r="T135" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>297</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C136" t="s">
+        <v>114</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E136" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>297</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C137" t="s">
+        <v>115</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E137" t="s">
+        <v>114</v>
+      </c>
+      <c r="F137">
+        <v>2</v>
+      </c>
+      <c r="H137" t="s">
+        <v>118</v>
+      </c>
+      <c r="J137" t="s">
+        <v>168</v>
+      </c>
+      <c r="K137" t="s">
+        <v>148</v>
+      </c>
+      <c r="M137" t="s">
+        <v>120</v>
+      </c>
+      <c r="N137" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>297</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C138" t="s">
+        <v>115</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E138" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>297</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C139" t="s">
+        <v>114</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E139" t="s">
+        <v>114</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>118</v>
+      </c>
+      <c r="I139" t="s">
+        <v>452</v>
+      </c>
+      <c r="J139" t="s">
+        <v>168</v>
+      </c>
+      <c r="K139" t="s">
+        <v>168</v>
+      </c>
+      <c r="L139" t="s">
+        <v>115</v>
+      </c>
+      <c r="N139" t="s">
+        <v>223</v>
+      </c>
+      <c r="O139" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>115</v>
+      </c>
+      <c r="R139" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>297</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C140" t="s">
+        <v>115</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E140" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>560</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C141" t="s">
+        <v>115</v>
+      </c>
+      <c r="D141" t="s">
+        <v>815</v>
+      </c>
+      <c r="E141" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>560</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C142" t="s">
+        <v>115</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E142" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>711</v>
+      </c>
+      <c r="B143" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C143" t="s">
+        <v>115</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E143" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>776</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C144" t="s">
+        <v>115</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E144" t="s">
+        <v>114</v>
+      </c>
+      <c r="F144">
+        <v>4</v>
+      </c>
+      <c r="G144">
+        <v>4</v>
+      </c>
+      <c r="H144" t="s">
+        <v>118</v>
+      </c>
+      <c r="I144" t="s">
+        <v>118</v>
+      </c>
+      <c r="J144" t="s">
+        <v>119</v>
+      </c>
+      <c r="K144" t="s">
+        <v>235</v>
+      </c>
+      <c r="L144" t="s">
+        <v>114</v>
+      </c>
+      <c r="M144" t="s">
+        <v>149</v>
+      </c>
+      <c r="N144" t="s">
+        <v>158</v>
+      </c>
+      <c r="O144" t="s">
+        <v>122</v>
+      </c>
+      <c r="P144" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>114</v>
+      </c>
+      <c r="R144" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>776</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C145" t="s">
+        <v>114</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E145" t="s">
+        <v>114</v>
+      </c>
+      <c r="F145">
+        <v>5</v>
+      </c>
+      <c r="G145">
+        <v>5</v>
+      </c>
+      <c r="H145" t="s">
+        <v>118</v>
+      </c>
+      <c r="I145" t="s">
+        <v>118</v>
+      </c>
+      <c r="J145" t="s">
+        <v>119</v>
+      </c>
+      <c r="K145" t="s">
+        <v>119</v>
+      </c>
+      <c r="L145" t="s">
+        <v>114</v>
+      </c>
+      <c r="M145" t="s">
+        <v>120</v>
+      </c>
+      <c r="N145" t="s">
+        <v>158</v>
+      </c>
+      <c r="O145" t="s">
+        <v>122</v>
+      </c>
+      <c r="P145" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>114</v>
+      </c>
+      <c r="R145" t="s">
+        <v>114</v>
+      </c>
+      <c r="S145" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>776</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C146" t="s">
+        <v>114</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E146" t="s">
+        <v>114</v>
+      </c>
+      <c r="F146">
+        <v>4</v>
+      </c>
+      <c r="G146">
+        <v>6</v>
+      </c>
+      <c r="H146" t="s">
+        <v>135</v>
+      </c>
+      <c r="I146" t="s">
+        <v>118</v>
+      </c>
+      <c r="J146" t="s">
+        <v>119</v>
+      </c>
+      <c r="K146" t="s">
+        <v>270</v>
+      </c>
+      <c r="L146" t="s">
+        <v>114</v>
+      </c>
+      <c r="M146" t="s">
+        <v>149</v>
+      </c>
+      <c r="N146" t="s">
+        <v>150</v>
+      </c>
+      <c r="O146" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>114</v>
+      </c>
+      <c r="R146" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>776</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C147" t="s">
+        <v>115</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E147" t="s">
+        <v>114</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+      <c r="G147">
+        <v>4</v>
+      </c>
+      <c r="H147" t="s">
+        <v>118</v>
+      </c>
+      <c r="I147" t="s">
+        <v>135</v>
+      </c>
+      <c r="J147" t="s">
+        <v>168</v>
+      </c>
+      <c r="K147" t="s">
+        <v>168</v>
+      </c>
+      <c r="L147" t="s">
+        <v>114</v>
+      </c>
+      <c r="M147" t="s">
+        <v>149</v>
+      </c>
+      <c r="N147" t="s">
+        <v>158</v>
+      </c>
+      <c r="O147" t="s">
+        <v>138</v>
+      </c>
+      <c r="P147" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>114</v>
+      </c>
+      <c r="R147" t="s">
+        <v>115</v>
+      </c>
+      <c r="S147" t="s">
+        <v>160</v>
+      </c>
+      <c r="T147" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>776</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C148" t="s">
+        <v>114</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E148" t="s">
+        <v>114</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>135</v>
+      </c>
+      <c r="I148" t="s">
+        <v>118</v>
+      </c>
+      <c r="J148" t="s">
+        <v>148</v>
+      </c>
+      <c r="K148" t="s">
+        <v>168</v>
+      </c>
+      <c r="L148" t="s">
+        <v>114</v>
+      </c>
+      <c r="M148" t="s">
+        <v>120</v>
+      </c>
+      <c r="N148" t="s">
+        <v>158</v>
+      </c>
+      <c r="O148" t="s">
+        <v>122</v>
+      </c>
+      <c r="P148" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>114</v>
+      </c>
+      <c r="R148" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>776</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C149" t="s">
+        <v>114</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E149" t="s">
+        <v>114</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149" t="s">
+        <v>118</v>
+      </c>
+      <c r="I149" t="s">
+        <v>135</v>
+      </c>
+      <c r="J149" t="s">
+        <v>119</v>
+      </c>
+      <c r="K149" t="s">
+        <v>119</v>
+      </c>
+      <c r="L149" t="s">
+        <v>114</v>
+      </c>
+      <c r="M149" t="s">
+        <v>120</v>
+      </c>
+      <c r="N149" t="s">
+        <v>158</v>
+      </c>
+      <c r="P149" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>114</v>
+      </c>
+      <c r="R149" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>776</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C150" t="s">
+        <v>115</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E150" t="s">
+        <v>114</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
+        <v>118</v>
+      </c>
+      <c r="J150" t="s">
+        <v>168</v>
+      </c>
+      <c r="K150" t="s">
+        <v>168</v>
+      </c>
+      <c r="L150" t="s">
+        <v>114</v>
+      </c>
+      <c r="N150" t="s">
+        <v>223</v>
+      </c>
+      <c r="O150" t="s">
+        <v>160</v>
+      </c>
+      <c r="P150" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>114</v>
+      </c>
+      <c r="R150" t="s">
+        <v>115</v>
+      </c>
+      <c r="S150" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>776</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C151" t="s">
+        <v>115</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E151" t="s">
+        <v>114</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="G151">
+        <v>2</v>
+      </c>
+      <c r="H151" t="s">
+        <v>221</v>
+      </c>
+      <c r="I151" t="s">
+        <v>118</v>
+      </c>
+      <c r="J151" t="s">
+        <v>148</v>
+      </c>
+      <c r="K151" t="s">
+        <v>119</v>
+      </c>
+      <c r="L151" t="s">
+        <v>114</v>
+      </c>
+      <c r="M151" t="s">
+        <v>120</v>
+      </c>
+      <c r="N151" t="s">
+        <v>223</v>
+      </c>
+      <c r="O151" t="s">
+        <v>160</v>
+      </c>
+      <c r="P151" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>114</v>
+      </c>
+      <c r="R151" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>776</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C152" t="s">
+        <v>115</v>
+      </c>
+      <c r="D152" t="s">
+        <v>815</v>
+      </c>
+      <c r="E152" t="s">
+        <v>114</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>221</v>
+      </c>
+      <c r="I152" t="s">
+        <v>118</v>
+      </c>
+      <c r="J152" t="s">
+        <v>136</v>
+      </c>
+      <c r="K152" t="s">
+        <v>136</v>
+      </c>
+      <c r="L152" t="s">
+        <v>115</v>
+      </c>
+      <c r="M152" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>776</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C153" t="s">
+        <v>115</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E153" t="s">
+        <v>114</v>
+      </c>
+      <c r="F153">
+        <v>6</v>
+      </c>
+      <c r="G153">
+        <v>6</v>
+      </c>
+      <c r="H153" t="s">
+        <v>118</v>
+      </c>
+      <c r="I153" t="s">
+        <v>118</v>
+      </c>
+      <c r="J153" t="s">
+        <v>119</v>
+      </c>
+      <c r="K153" t="s">
+        <v>148</v>
+      </c>
+      <c r="L153" t="s">
+        <v>114</v>
+      </c>
+      <c r="M153" t="s">
+        <v>120</v>
+      </c>
+      <c r="N153" t="s">
+        <v>150</v>
+      </c>
+      <c r="O153" t="s">
+        <v>138</v>
+      </c>
+      <c r="P153" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>114</v>
+      </c>
+      <c r="R153" t="s">
+        <v>115</v>
+      </c>
+      <c r="S153" t="s">
+        <v>626</v>
+      </c>
+      <c r="T153" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>776</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C154" t="s">
+        <v>115</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E154" t="s">
+        <v>114</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+      <c r="H154" t="s">
+        <v>118</v>
+      </c>
+      <c r="I154" t="s">
+        <v>135</v>
+      </c>
+      <c r="J154" t="s">
+        <v>119</v>
+      </c>
+      <c r="K154" t="s">
+        <v>119</v>
+      </c>
+      <c r="L154" t="s">
+        <v>114</v>
+      </c>
+      <c r="M154" t="s">
+        <v>120</v>
+      </c>
+      <c r="N154" t="s">
+        <v>158</v>
+      </c>
+      <c r="O154" t="s">
+        <v>138</v>
+      </c>
+      <c r="P154" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>114</v>
+      </c>
+      <c r="R154" t="s">
+        <v>115</v>
+      </c>
+      <c r="S154" t="s">
+        <v>626</v>
+      </c>
+      <c r="T154" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="155" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>776</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C155" t="s">
+        <v>115</v>
+      </c>
+      <c r="D155" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E155" t="s">
+        <v>114</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="J155" t="s">
+        <v>168</v>
+      </c>
+      <c r="K155" t="s">
+        <v>168</v>
+      </c>
+      <c r="L155" t="s">
+        <v>115</v>
+      </c>
+      <c r="M155" t="s">
+        <v>149</v>
+      </c>
+      <c r="N155" t="s">
+        <v>150</v>
+      </c>
+      <c r="O155" t="s">
+        <v>122</v>
+      </c>
+      <c r="P155" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>114</v>
+      </c>
+      <c r="R155" t="s">
+        <v>115</v>
+      </c>
+      <c r="S155" t="s">
+        <v>160</v>
+      </c>
+      <c r="T155" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>776</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C156" t="s">
+        <v>114</v>
+      </c>
+      <c r="D156" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E156" t="s">
+        <v>114</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>118</v>
+      </c>
+      <c r="J156" t="s">
+        <v>202</v>
+      </c>
+      <c r="K156" t="s">
+        <v>136</v>
+      </c>
+      <c r="L156" t="s">
+        <v>114</v>
+      </c>
+      <c r="M156" t="s">
+        <v>149</v>
+      </c>
+      <c r="N156" t="s">
+        <v>158</v>
+      </c>
+      <c r="O156" t="s">
+        <v>122</v>
+      </c>
+      <c r="P156" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>114</v>
+      </c>
+      <c r="R156" t="s">
+        <v>115</v>
+      </c>
+      <c r="S156" t="s">
+        <v>341</v>
+      </c>
+      <c r="T156" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>776</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C157" t="s">
+        <v>115</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E157" t="s">
+        <v>114</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="J157" t="s">
+        <v>168</v>
+      </c>
+      <c r="K157" t="s">
+        <v>168</v>
+      </c>
+      <c r="L157" t="s">
+        <v>115</v>
+      </c>
+      <c r="M157" t="s">
+        <v>120</v>
+      </c>
+      <c r="N157" t="s">
+        <v>121</v>
+      </c>
+      <c r="O157" t="s">
+        <v>122</v>
+      </c>
+      <c r="P157" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>115</v>
+      </c>
+      <c r="R157" t="s">
+        <v>115</v>
+      </c>
+      <c r="S157" t="s">
+        <v>160</v>
+      </c>
+      <c r="T157" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>776</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C158" t="s">
+        <v>114</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E158" t="s">
+        <v>114</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+      <c r="H158" t="s">
+        <v>118</v>
+      </c>
+      <c r="I158" t="s">
+        <v>118</v>
+      </c>
+      <c r="J158" t="s">
+        <v>168</v>
+      </c>
+      <c r="K158" t="s">
+        <v>168</v>
+      </c>
+      <c r="L158" t="s">
+        <v>114</v>
+      </c>
+      <c r="M158" t="s">
+        <v>149</v>
+      </c>
+      <c r="N158" t="s">
+        <v>223</v>
+      </c>
+      <c r="O158" t="s">
+        <v>122</v>
+      </c>
+      <c r="P158" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>115</v>
+      </c>
+      <c r="R158" t="s">
+        <v>115</v>
+      </c>
+      <c r="S158" t="s">
+        <v>341</v>
+      </c>
+      <c r="T158" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="159" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>776</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C159" t="s">
+        <v>115</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E159" t="s">
+        <v>114</v>
+      </c>
+      <c r="F159">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>2</v>
+      </c>
+      <c r="H159" t="s">
+        <v>118</v>
+      </c>
+      <c r="I159" t="s">
+        <v>135</v>
+      </c>
+      <c r="J159" t="s">
+        <v>168</v>
+      </c>
+      <c r="K159" t="s">
+        <v>168</v>
+      </c>
+      <c r="L159" t="s">
+        <v>115</v>
+      </c>
+      <c r="M159" t="s">
+        <v>149</v>
+      </c>
+      <c r="N159" t="s">
+        <v>158</v>
+      </c>
+      <c r="O159" t="s">
+        <v>160</v>
+      </c>
+      <c r="P159" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>114</v>
+      </c>
+      <c r="R159" t="s">
+        <v>115</v>
+      </c>
+      <c r="S159" t="s">
+        <v>160</v>
+      </c>
+      <c r="T159" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>776</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C160" t="s">
+        <v>115</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E160" t="s">
+        <v>114</v>
+      </c>
+      <c r="F160">
+        <v>3</v>
+      </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
+      <c r="H160" t="s">
+        <v>221</v>
+      </c>
+      <c r="I160" t="s">
+        <v>118</v>
+      </c>
+      <c r="J160" t="s">
+        <v>148</v>
+      </c>
+      <c r="K160" t="s">
+        <v>148</v>
+      </c>
+      <c r="L160" t="s">
+        <v>114</v>
+      </c>
+      <c r="M160" t="s">
+        <v>120</v>
+      </c>
+      <c r="N160" t="s">
+        <v>158</v>
+      </c>
+      <c r="O160" t="s">
+        <v>122</v>
+      </c>
+      <c r="P160" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>114</v>
+      </c>
+      <c r="R160" t="s">
+        <v>114</v>
+      </c>
+      <c r="S160" t="s">
+        <v>160</v>
+      </c>
+      <c r="T160" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="161" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>776</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C161" t="s">
+        <v>115</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E161" t="s">
+        <v>114</v>
+      </c>
+      <c r="F161">
+        <v>2</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161" t="s">
+        <v>118</v>
+      </c>
+      <c r="I161" t="s">
+        <v>118</v>
+      </c>
+      <c r="J161" t="s">
+        <v>136</v>
+      </c>
+      <c r="K161" t="s">
+        <v>136</v>
+      </c>
+      <c r="L161" t="s">
+        <v>114</v>
+      </c>
+      <c r="M161" t="s">
+        <v>149</v>
+      </c>
+      <c r="N161" t="s">
+        <v>223</v>
+      </c>
+      <c r="P161" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>114</v>
+      </c>
+      <c r="R161" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="162" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>711</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C162" t="s">
+        <v>115</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E162" t="s">
+        <v>114</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162">
+        <v>2</v>
+      </c>
+      <c r="H162" t="s">
+        <v>118</v>
+      </c>
+      <c r="I162" t="s">
+        <v>118</v>
+      </c>
+      <c r="J162" t="s">
+        <v>119</v>
+      </c>
+      <c r="K162" t="s">
+        <v>119</v>
+      </c>
+      <c r="L162" t="s">
+        <v>114</v>
+      </c>
+      <c r="M162" t="s">
+        <v>149</v>
+      </c>
+      <c r="N162" t="s">
+        <v>150</v>
+      </c>
+      <c r="O162" t="s">
+        <v>138</v>
+      </c>
+      <c r="P162" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>114</v>
+      </c>
+      <c r="R162" t="s">
+        <v>115</v>
+      </c>
+      <c r="S162" t="s">
+        <v>1338</v>
+      </c>
+      <c r="T162" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="163" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B163" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C163" t="s">
+        <v>114</v>
+      </c>
+      <c r="D163" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E163" t="s">
+        <v>114</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>118</v>
+      </c>
+      <c r="I163" t="s">
+        <v>118</v>
+      </c>
+      <c r="J163" t="s">
+        <v>1352</v>
+      </c>
+      <c r="K163" t="s">
+        <v>235</v>
+      </c>
+      <c r="L163" t="s">
+        <v>115</v>
+      </c>
+      <c r="M163" t="s">
+        <v>120</v>
+      </c>
+      <c r="N163" t="s">
+        <v>223</v>
+      </c>
+      <c r="O163" t="s">
+        <v>159</v>
+      </c>
+      <c r="P163" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>114</v>
+      </c>
+      <c r="R163" t="s">
+        <v>115</v>
+      </c>
+      <c r="S163" t="s">
+        <v>138</v>
+      </c>
+      <c r="T163" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="164" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>607</v>
+      </c>
+      <c r="B164" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C164" t="s">
+        <v>115</v>
+      </c>
+      <c r="D164" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E164" t="s">
+        <v>114</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164" t="s">
+        <v>118</v>
+      </c>
+      <c r="I164" t="s">
+        <v>201</v>
+      </c>
+      <c r="J164" t="s">
+        <v>148</v>
+      </c>
+      <c r="K164" t="s">
+        <v>202</v>
+      </c>
+      <c r="L164" t="s">
+        <v>114</v>
+      </c>
+      <c r="M164" t="s">
+        <v>149</v>
+      </c>
+      <c r="N164" t="s">
+        <v>121</v>
+      </c>
+      <c r="O164" t="s">
+        <v>138</v>
+      </c>
+      <c r="P164" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>114</v>
+      </c>
+      <c r="R164" t="s">
+        <v>115</v>
+      </c>
+      <c r="S164" t="s">
+        <v>626</v>
+      </c>
+      <c r="T164" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="165" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>607</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C165" t="s">
+        <v>114</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E165" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="166" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>607</v>
+      </c>
+      <c r="B166" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C166" t="s">
+        <v>115</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E166" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="167" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>607</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C167" t="s">
+        <v>115</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E167" t="s">
+        <v>114</v>
+      </c>
+      <c r="F167">
+        <v>4</v>
+      </c>
+      <c r="H167" t="s">
+        <v>221</v>
+      </c>
+      <c r="J167" t="s">
+        <v>168</v>
+      </c>
+      <c r="K167" t="s">
+        <v>168</v>
+      </c>
+      <c r="L167" t="s">
+        <v>114</v>
+      </c>
+      <c r="M167" t="s">
+        <v>149</v>
+      </c>
+      <c r="N167" t="s">
+        <v>150</v>
+      </c>
+      <c r="O167" t="s">
+        <v>122</v>
+      </c>
+      <c r="P167" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>114</v>
+      </c>
+      <c r="R167" t="s">
+        <v>115</v>
+      </c>
+      <c r="S167" t="s">
+        <v>341</v>
+      </c>
+      <c r="T167" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="168" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>607</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C168" t="s">
+        <v>114</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E168" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>607</v>
+      </c>
+      <c r="B169" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C169" t="s">
+        <v>115</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E169" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>607</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C170" t="s">
+        <v>114</v>
+      </c>
+      <c r="D170" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E170" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="171" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>607</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C171" t="s">
+        <v>115</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E171" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="172" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>607</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C172" t="s">
+        <v>115</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E172" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>